--- a/3.7_AmplitudeRatio.xlsx
+++ b/3.7_AmplitudeRatio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12000" windowHeight="12240" activeTab="1"/>
+    <workbookView windowWidth="27495" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,8 +122,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -154,16 +154,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,44 +200,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,53 +224,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +289,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -313,6 +313,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -325,19 +343,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,13 +421,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,115 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,8 +548,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -559,7 +561,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,32 +597,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -643,157 +619,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,9 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1139,8 +1136,8 @@
   <sheetPr/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -1161,7 +1158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1172,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1183,7 +1180,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1191,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="15.75" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1202,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" ht="15.75" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1213,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" ht="15.75" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1224,7 @@
         <v>0.28</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="15.75" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1238,7 +1235,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="15.75" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1249,7 +1246,7 @@
         <v>0.28</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" ht="15.75" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1260,7 +1257,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="15.75" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1271,7 +1268,7 @@
         <v>0.29</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" ht="15.75" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1323,178 +1320,294 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="3">
         <v>1.9958</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>0.0030429</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>2.0773</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>0.0047628</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>1.8839</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <v>0.0027048</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="3">
         <v>1.9672</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="3">
         <v>0.0049735</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="3">
         <v>2.1429</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>0.55669</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="3">
         <v>2.2277</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="3">
         <v>0.54945</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>2.0547</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <v>0.57379</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <v>2.1383</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="3">
         <v>0.57404</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="3">
         <v>1.8591</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>0.039891</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="3">
         <v>1.9353</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="3">
         <v>0.03947</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="3">
         <v>1.8603</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="3">
         <v>0.005586</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="3">
+        <v>1.9364</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.0075705</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="B18" s="3">
+        <v>1.9499</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.015592</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.0252</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.016131</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.8507</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.0055468</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.9259</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.0077861</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="B19" s="3">
+        <v>1.9627</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.047662</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2.0389</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.048892</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.8378</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.0073598</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.9129</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.0069629</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="B20" s="3">
+        <v>1.8274</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.0057183</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.9012</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.0066199</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.8166</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.0065856</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.894</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.0087416</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="B21" s="3">
+        <v>1.8707</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.056071</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.9445</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.055718</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.8067</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.0031017</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1.8823</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.0056399</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="B22" s="3">
+        <v>1.9302</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.015009</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2.005</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.014587</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1.8014</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.0057281</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.8779</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.006615</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="B23" s="3">
+        <v>1.8636</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.031718</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.94</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.032658</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.778</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.010942</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1.8559</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.011324</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="B24" s="3">
+        <v>1.8875</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.073804</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1.9632</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.076376</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.7885</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.053577</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1.8673</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.056419</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1507,8 +1620,8 @@
   <sheetPr/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="2"/>

--- a/3.7_AmplitudeRatio.xlsx
+++ b/3.7_AmplitudeRatio.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27495" windowHeight="12465"/>
+    <workbookView windowWidth="27495" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>f</t>
   </si>
@@ -60,6 +61,9 @@
   </si>
   <si>
     <t>6000 </t>
+  </si>
+  <si>
+    <t>f_SD</t>
   </si>
   <si>
     <t>C1_Amp</t>
@@ -127,7 +131,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,12 +148,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -648,171 +658,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1134,163 +1149,179 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.8" customWidth="1"/>
-    <col min="3" max="3" width="13.6" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="5.8" style="4" customWidth="1"/>
+    <col min="2" max="3" width="8.8" style="4"/>
+    <col min="4" max="4" width="13.6" style="4" customWidth="1"/>
+    <col min="5" max="7" width="8.8" style="4"/>
+    <col min="8" max="8" width="11.5" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.8" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15" spans="1:4">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>0.03</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="15" spans="1:4">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
         <v>-2.59</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="2">
         <v>0.24</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="15" spans="1:4">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <v>-5.28</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:3">
-      <c r="A5" s="5" t="s">
+    <row r="5" ht="15" spans="1:4">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
         <v>-7.93</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="2">
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:3">
-      <c r="A6" s="5" t="s">
+    <row r="6" ht="15" spans="1:4">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
         <v>-10.58</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="2">
         <v>0.18</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:3">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="15" spans="1:4">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
         <v>-13.19</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="2">
         <v>0.28</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:3">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="15" spans="1:4">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
         <v>-26.41</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="2">
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="5" t="s">
+    <row r="9" ht="15" spans="1:4">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
         <v>-55.46</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="2">
         <v>0.28</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:3">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="15" spans="1:4">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
         <v>-87.49</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="2">
         <v>0.31</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="5" t="s">
+    <row r="11" ht="15" spans="1:4">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
         <v>-120.66</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="2">
         <v>0.29</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="5" t="s">
+    <row r="12" ht="15" spans="1:4">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
         <v>-151.54</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="2">
         <v>0.27</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
         <v>-179.94</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="2">
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1318,296 +1349,1025 @@
       <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3" t="s">
+      <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3">
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>300</v>
+      </c>
+      <c r="C15" s="2">
         <v>1.9958</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="2">
         <v>0.0030429</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="2">
         <v>2.0773</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="2">
         <v>0.0047628</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="2">
         <v>1.8839</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="2">
         <v>0.0027048</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="2">
         <v>1.9672</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="2">
         <v>0.0049735</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="3">
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>300</v>
+      </c>
+      <c r="C16" s="2">
         <v>2.1429</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="2">
         <v>0.55669</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="2">
         <v>2.2277</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="2">
         <v>0.54945</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="2">
         <v>2.0547</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="2">
         <v>0.57379</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="2">
         <v>2.1383</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="2">
         <v>0.57404</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3">
+    <row r="17" spans="1:15">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2">
+        <v>300</v>
+      </c>
+      <c r="C17" s="2">
         <v>1.8591</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="2">
         <v>0.039891</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="2">
         <v>1.9353</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="2">
         <v>0.03947</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="2">
         <v>1.8603</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="2">
         <v>0.005586</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="2">
         <v>1.9364</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="2">
         <v>0.0075705</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2">
+        <v>300</v>
+      </c>
+      <c r="C18" s="2">
         <v>1.9499</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="2">
         <v>0.015592</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="2">
         <v>2.0252</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="2">
         <v>0.016131</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="2">
         <v>1.8507</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="2">
         <v>0.0055468</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="2">
         <v>1.9259</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="2">
         <v>0.0077861</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2">
+        <v>300</v>
+      </c>
+      <c r="C19" s="2">
         <v>1.9627</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="2">
         <v>0.047662</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="2">
         <v>2.0389</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="2">
         <v>0.048892</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="2">
         <v>1.8378</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="2">
         <v>0.0073598</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="2">
         <v>1.9129</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="2">
         <v>0.0069629</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="3">
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2">
+        <v>300</v>
+      </c>
+      <c r="C20" s="2">
         <v>1.8274</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="2">
         <v>0.0057183</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="2">
         <v>1.9012</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="2">
         <v>0.0066199</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="2">
         <v>1.8166</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="2">
         <v>0.0065856</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="2">
         <v>1.894</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="2">
         <v>0.0087416</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2">
+        <v>300</v>
+      </c>
+      <c r="C21" s="2">
         <v>1.8707</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="2">
         <v>0.056071</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="2">
         <v>1.9445</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="2">
         <v>0.055718</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="2">
         <v>1.8067</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="2">
         <v>0.0031017</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="2">
         <v>1.8823</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="2">
         <v>0.0056399</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2">
+        <v>300</v>
+      </c>
+      <c r="C22" s="2">
         <v>1.9302</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="2">
         <v>0.015009</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="2">
         <v>2.005</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="2">
         <v>0.014587</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="2">
         <v>1.8014</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="2">
         <v>0.0057281</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="2">
         <v>1.8779</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="2">
         <v>0.006615</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2">
+        <v>300</v>
+      </c>
+      <c r="C23" s="2">
         <v>1.8636</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="2">
         <v>0.031718</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="2">
         <v>1.94</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="2">
         <v>0.032658</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="2">
         <v>1.778</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="2">
         <v>0.010942</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="2">
         <v>1.8559</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="2">
         <v>0.011324</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2">
+        <v>300</v>
+      </c>
+      <c r="C24" s="2">
         <v>1.8875</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="2">
         <v>0.073804</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="2">
         <v>1.9632</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="2">
         <v>0.076376</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="2">
         <v>1.7885</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="2">
         <v>0.053577</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="2">
         <v>1.8673</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="2">
         <v>0.056419</v>
       </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2">
+        <v>300</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3.8846</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.0022295</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="G25" s="3">
+        <v>3.8617</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.0019012</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="3">
+        <v>6000</v>
+      </c>
+      <c r="B26" s="3">
+        <v>470</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3.4905</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.0026215</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="G26" s="3">
+        <v>3.5003</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.0028371</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="3">
+        <v>12000</v>
+      </c>
+      <c r="B27" s="3">
+        <v>400</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3.3588</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.0026117</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="G27" s="3">
+        <v>3.4559</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.0031066</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="3">
+        <v>18000</v>
+      </c>
+      <c r="B28" s="3">
+        <v>370</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3.2752</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.0024551</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="G28" s="3">
+        <v>3.2795</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.0023079</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="3">
+        <v>24000</v>
+      </c>
+      <c r="B29" s="3">
+        <v>380</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3.1175</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.0021462</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3">
+        <v>3.1755</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.0018723</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="3">
+        <v>29780</v>
+      </c>
+      <c r="B30" s="3">
+        <v>330</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3.0266</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.0023716</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="G30" s="3">
+        <v>3.1769</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.0024602</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="3">
+        <v>35780</v>
+      </c>
+      <c r="B31" s="3">
+        <v>430</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3.0798</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.0024549</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="G31" s="3">
+        <v>2.7891</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.0019551</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="3">
+        <v>41480</v>
+      </c>
+      <c r="B32" s="3">
+        <v>300</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2.8843</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.0023524</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="G32" s="3">
+        <v>2.9734</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.0019257</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="3">
+        <v>47610</v>
+      </c>
+      <c r="B33" s="3">
+        <v>330</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3.2197</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.002107</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="G33" s="3">
+        <v>2.3427</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.0016856</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="3">
+        <v>53420</v>
+      </c>
+      <c r="B34" s="3">
+        <v>250</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2.7976</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.0015377</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="G34" s="3">
+        <v>2.5536</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.0019518</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="3">
+        <v>59010</v>
+      </c>
+      <c r="B35" s="3">
+        <v>290</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2.6912</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.0020334</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="G35" s="3">
+        <v>2.3522</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.0015681</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="3">
+        <v>64550</v>
+      </c>
+      <c r="B36" s="3">
+        <v>370</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2.6314</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.0015788</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="G36" s="3">
+        <v>2.2965</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.0023128</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="3">
+        <v>69590</v>
+      </c>
+      <c r="B37" s="3">
+        <v>210</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2.3025</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.0017052</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="G37" s="3">
+        <v>2.7533</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.0016805</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="3">
+        <v>75350</v>
+      </c>
+      <c r="B38" s="3">
+        <v>240</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2.9423</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.0024745</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="G38" s="3">
+        <v>1.7285</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.0021234</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="3">
+        <v>80730</v>
+      </c>
+      <c r="B39" s="3">
+        <v>250</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2.8857</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.0018032</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="G39" s="3">
+        <v>1.8804</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.0021168</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="3">
+        <v>86150</v>
+      </c>
+      <c r="B40" s="3">
+        <v>310</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2.6752</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.0015778</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="G40" s="3">
+        <v>1.5832</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.0016805</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="3">
+        <v>91180</v>
+      </c>
+      <c r="B41" s="3">
+        <v>250</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2.4602</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.0017101</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="G41" s="3">
+        <v>1.8765</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.0015729</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="3">
+        <v>95520</v>
+      </c>
+      <c r="B42" s="3">
+        <v>190</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2.0051</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.0021266</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="G42" s="3">
+        <v>2.2063</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.0022197</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="3">
+        <v>100200</v>
+      </c>
+      <c r="B43" s="3">
+        <v>300</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2.5956</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.0014167</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="G43" s="3">
+        <v>1.5783</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.0024451</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="3">
+        <v>104500</v>
+      </c>
+      <c r="B44" s="3">
+        <v>300</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2.4837</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.0016807</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="G44" s="3">
+        <v>1.5334</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.0017649</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="3">
+        <v>109600</v>
+      </c>
+      <c r="B45" s="3">
+        <v>400</v>
+      </c>
+      <c r="C45" s="3">
+        <v>3.036</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.0024568</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="G45" s="3">
+        <v>0.9663</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.0021266</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="3">
+        <v>113900</v>
+      </c>
+      <c r="B46" s="3">
+        <v>300</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2.5756</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.0024206</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="G46" s="3">
+        <v>1.3533</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.0019478</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="3">
+        <v>118100</v>
+      </c>
+      <c r="B47" s="3">
+        <v>400</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2.7833</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.0018765</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="G47" s="3">
+        <v>1.1463</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.0016856</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="3">
+        <v>121500</v>
+      </c>
+      <c r="B48" s="3">
+        <v>300</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2.1307</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.0019306</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="G48" s="3">
+        <v>1.4851</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.0015537</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="3">
+        <v>124900</v>
+      </c>
+      <c r="B49" s="3">
+        <v>300</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2.3014</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.0023267</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="G49" s="3">
+        <v>0.9661</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.0018916</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="3">
+        <v>128700</v>
+      </c>
+      <c r="B50" s="2">
+        <v>300</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2.7702</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.0023124</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="G50" s="3">
+        <v>0.7713</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.0024091</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="4:15">
+      <c r="D51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="4:15">
+      <c r="D52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1638,136 +2398,1129 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-2.59</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-5.28</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-7.93</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-10.58</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:3">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-13.19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-26.41</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-55.46</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:3">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-87.49</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:3">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-120.66</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:3">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-151.54</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-179.94</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>-2.59</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>-5.28</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>-7.93</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-10.58</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>-13.19</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>-26.41</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
-        <v>-55.46</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3">
-        <v>-87.49</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3">
-        <v>-120.66</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3">
-        <v>-151.54</v>
+        <v>24</v>
+      </c>
+      <c r="B2" s="2">
+        <v>300</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.9958</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.0030429</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.0773</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0047628</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.8839</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.0027048</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.9672</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.0049735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2">
+        <v>300</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.1429</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.55669</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.2277</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.54945</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.0547</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.57379</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2.1383</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.57404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>300</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.8591</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.039891</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.9353</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.03947</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.8603</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.005586</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.9364</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.0075705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2">
+        <v>300</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.9499</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.015592</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.0252</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.016131</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.8507</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.0055468</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.9259</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.0077861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2">
+        <v>300</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.9627</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.047662</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.0389</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.048892</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.8378</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.0073598</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.9129</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.0069629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2">
+        <v>300</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.8274</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.0057183</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.9012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.0066199</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.8166</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.0065856</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1.894</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.0087416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>300</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.8707</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.056071</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.9445</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.055718</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.8067</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.0031017</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1.8823</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.0056399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2">
+        <v>300</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.9302</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.015009</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.005</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.014587</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.8014</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.0057281</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.8779</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.006615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2">
+        <v>300</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.8636</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.031718</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.032658</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.778</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.010942</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.8559</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.011324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2">
+        <v>300</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.8875</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.073804</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.9632</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.076376</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.7885</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.053577</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.8673</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.056419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>300</v>
       </c>
       <c r="C12" s="3">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
-        <v>14</v>
+        <v>3.8846</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.0022295</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3">
+        <v>3.8617</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.0019012</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>6000</v>
       </c>
       <c r="B13" s="3">
-        <v>-179.94</v>
+        <v>470</v>
       </c>
       <c r="C13" s="3">
-        <v>0.36</v>
-      </c>
+        <v>3.4905</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.0026215</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3">
+        <v>3.5003</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.0028371</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="B14" s="3">
+        <v>400</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.3588</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.0026117</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3">
+        <v>3.4559</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.0031066</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <v>18000</v>
+      </c>
+      <c r="B15" s="3">
+        <v>370</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3.2752</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.0024551</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3">
+        <v>3.2795</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.0023079</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>24000</v>
+      </c>
+      <c r="B16" s="3">
+        <v>380</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3.1175</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.0021462</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3">
+        <v>3.1755</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.0018723</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3">
+        <v>29780</v>
+      </c>
+      <c r="B17" s="3">
+        <v>330</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3.0266</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.0023716</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3">
+        <v>3.1769</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.0024602</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3">
+        <v>35780</v>
+      </c>
+      <c r="B18" s="3">
+        <v>430</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3.0798</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.0024549</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3">
+        <v>2.7891</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.0019551</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
+        <v>41480</v>
+      </c>
+      <c r="B19" s="3">
+        <v>300</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2.8843</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.0023524</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3">
+        <v>2.9734</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.0019257</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3">
+        <v>47610</v>
+      </c>
+      <c r="B20" s="3">
+        <v>330</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3.2197</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.002107</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3">
+        <v>2.3427</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.0016856</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3">
+        <v>53420</v>
+      </c>
+      <c r="B21" s="3">
+        <v>250</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2.7976</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.0015377</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3">
+        <v>2.5536</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.0019518</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3">
+        <v>59010</v>
+      </c>
+      <c r="B22" s="3">
+        <v>290</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2.6912</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.0020334</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3">
+        <v>2.3522</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.0015681</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3">
+        <v>64550</v>
+      </c>
+      <c r="B23" s="3">
+        <v>370</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2.6314</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.0015788</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3">
+        <v>2.2965</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.0023128</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3">
+        <v>69590</v>
+      </c>
+      <c r="B24" s="3">
+        <v>210</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2.3025</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.0017052</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3">
+        <v>2.7533</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.0016805</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3">
+        <v>75350</v>
+      </c>
+      <c r="B25" s="3">
+        <v>240</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2.9423</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.0024745</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3">
+        <v>1.7285</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.0021234</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3">
+        <v>80730</v>
+      </c>
+      <c r="B26" s="3">
+        <v>250</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2.8857</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.0018032</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3">
+        <v>1.8804</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.0021168</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3">
+        <v>86150</v>
+      </c>
+      <c r="B27" s="3">
+        <v>310</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2.6752</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.0015778</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3">
+        <v>1.5832</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.0016805</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3">
+        <v>91180</v>
+      </c>
+      <c r="B28" s="3">
+        <v>250</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2.4602</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.0017101</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3">
+        <v>1.8765</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.0015729</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="3">
+        <v>95520</v>
+      </c>
+      <c r="B29" s="3">
+        <v>190</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2.0051</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.0021266</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3">
+        <v>2.2063</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.0022197</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3">
+        <v>100200</v>
+      </c>
+      <c r="B30" s="3">
+        <v>300</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2.5956</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.0014167</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3">
+        <v>1.5783</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.0024451</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3">
+        <v>104500</v>
+      </c>
+      <c r="B31" s="3">
+        <v>300</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2.4837</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.0016807</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3">
+        <v>1.5334</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.0017649</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3">
+        <v>109600</v>
+      </c>
+      <c r="B32" s="3">
+        <v>400</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3.036</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.0024568</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3">
+        <v>0.9663</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.0021266</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3">
+        <v>113900</v>
+      </c>
+      <c r="B33" s="3">
+        <v>300</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2.5756</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.0024206</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3">
+        <v>1.3533</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.0019478</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3">
+        <v>118100</v>
+      </c>
+      <c r="B34" s="3">
+        <v>400</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2.7833</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.0018765</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3">
+        <v>1.1463</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.0016856</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3">
+        <v>121500</v>
+      </c>
+      <c r="B35" s="3">
+        <v>300</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2.1307</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.0019306</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3">
+        <v>1.4851</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.0015537</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3">
+        <v>124900</v>
+      </c>
+      <c r="B36" s="3">
+        <v>300</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2.3014</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.0023267</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3">
+        <v>0.9661</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.0018916</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3">
+        <v>128700</v>
+      </c>
+      <c r="B37" s="2">
+        <v>300</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2.7702</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.0023124</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3">
+        <v>0.7713</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.0024091</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
